--- a/data/Kal-Kap_corresp.xlsx
+++ b/data/Kal-Kap_corresp.xlsx
@@ -31,7 +31,7 @@
     <t>dimos_kap</t>
   </si>
   <si>
-    <t>normarchia_kap</t>
+    <t>nomarchia_kap</t>
   </si>
   <si>
     <t>perifereia_kap</t>
